--- a/Deliverable 3/Communication Management Plan/4.3.xlsx
+++ b/Deliverable 3/Communication Management Plan/4.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Santi/Documents/GitHub/projectsGroup3/Deliverable 3/Communication Management Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D98B7600-3F5D-1147-BECB-EF9660B541B8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4DEAEDF4-D2B2-344C-8AC3-85B8B2CCF870}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{B08EDF95-711D-5743-A945-56314D668AA6}"/>
+    <workbookView xWindow="13600" yWindow="460" windowWidth="12000" windowHeight="14320" xr2:uid="{B08EDF95-711D-5743-A945-56314D668AA6}"/>
   </bookViews>
   <sheets>
     <sheet name="4.3" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>Communication Type</t>
   </si>
@@ -66,18 +66,9 @@
     <t>Report the status of the project including activities, progress, costs and issues.</t>
   </si>
   <si>
-    <t>Internal Status Meetings</t>
-  </si>
-  <si>
-    <t>Discuss assignments, activities and sharing infromation</t>
-  </si>
-  <si>
     <t>Technical and Business Status Meetings and Reports</t>
   </si>
   <si>
-    <t>Business Team, Technical Team</t>
-  </si>
-  <si>
     <t>Review progress, risks and issues</t>
   </si>
   <si>
@@ -87,9 +78,6 @@
     <t>Steering Committee, Project Manager</t>
   </si>
   <si>
-    <t>Status Meetings with Stakeholders</t>
-  </si>
-  <si>
     <t>Provide Stakeholders information on the status and progress of the project</t>
   </si>
   <si>
@@ -175,6 +163,42 @@
   </si>
   <si>
     <t>Stakeholders, Project Manager</t>
+  </si>
+  <si>
+    <t>Discuss assignments, activities and sharing information</t>
+  </si>
+  <si>
+    <t>Internal Business Status Meetings</t>
+  </si>
+  <si>
+    <t>Discuss assignments, activities, sharing information and reporting the project status</t>
+  </si>
+  <si>
+    <t>Business Team</t>
+  </si>
+  <si>
+    <t>Business Team Manager</t>
+  </si>
+  <si>
+    <t>Adivsory Committee, Project Stakeholders, Project Manager</t>
+  </si>
+  <si>
+    <t>Enhance communication and coordination of the project</t>
+  </si>
+  <si>
+    <t>Status Meetings and Reports to Stakeholders</t>
+  </si>
+  <si>
+    <t>Face to Face or Video Conference</t>
+  </si>
+  <si>
+    <t>Communication Manager</t>
+  </si>
+  <si>
+    <t>Irregularly</t>
+  </si>
+  <si>
+    <t>Journal Article</t>
   </si>
 </sst>
 </file>
@@ -290,22 +314,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -314,6 +326,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,7 +656,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -645,375 +669,393 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="C8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="B10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="G10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="G16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1" t="s">
+    <row r="17" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="272" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="112" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" ht="96" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="G21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
     <mergeCell ref="H12:H15"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="A10:A11"/>
@@ -1028,18 +1070,20 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Deliverable 3/Communication Management Plan/4.3.xlsx
+++ b/Deliverable 3/Communication Management Plan/4.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Santi/Documents/GitHub/projectsGroup3/Deliverable 3/Communication Management Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4DEAEDF4-D2B2-344C-8AC3-85B8B2CCF870}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ABCE50DF-75D1-DA4E-8044-940FB7EC7961}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13600" yWindow="460" windowWidth="12000" windowHeight="14320" xr2:uid="{B08EDF95-711D-5743-A945-56314D668AA6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{B08EDF95-711D-5743-A945-56314D668AA6}"/>
   </bookViews>
   <sheets>
     <sheet name="4.3" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
   <si>
     <t>Communication Type</t>
   </si>
@@ -72,18 +72,9 @@
     <t>Review progress, risks and issues</t>
   </si>
   <si>
-    <t>Project Stakeholders, Project Manager</t>
-  </si>
-  <si>
-    <t>Steering Committee, Project Manager</t>
-  </si>
-  <si>
     <t>Provide Stakeholders information on the status and progress of the project</t>
   </si>
   <si>
-    <t>Regular Intervals</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -144,9 +135,6 @@
     <t>Digital and Written platforms</t>
   </si>
   <si>
-    <t>Project Manager, Business Team, Technical Team</t>
-  </si>
-  <si>
     <t>Agenda, Meeting Minutes</t>
   </si>
   <si>
@@ -162,9 +150,6 @@
     <t>Advisory Committe Meetings</t>
   </si>
   <si>
-    <t>Stakeholders, Project Manager</t>
-  </si>
-  <si>
     <t>Discuss assignments, activities and sharing information</t>
   </si>
   <si>
@@ -177,12 +162,6 @@
     <t>Business Team</t>
   </si>
   <si>
-    <t>Business Team Manager</t>
-  </si>
-  <si>
-    <t>Adivsory Committee, Project Stakeholders, Project Manager</t>
-  </si>
-  <si>
     <t>Enhance communication and coordination of the project</t>
   </si>
   <si>
@@ -192,13 +171,55 @@
     <t>Face to Face or Video Conference</t>
   </si>
   <si>
-    <t>Communication Manager</t>
-  </si>
-  <si>
-    <t>Irregularly</t>
-  </si>
-  <si>
     <t>Journal Article</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Hard Copy</t>
+  </si>
+  <si>
+    <t>Online Posts</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>When Available</t>
+  </si>
+  <si>
+    <t>Marketing and Communication Manager</t>
+  </si>
+  <si>
+    <t>Stakeholder and Procurement Manager</t>
+  </si>
+  <si>
+    <t>Project Stakeholders, Stakeholder and Procurement Manager, Project Manager</t>
+  </si>
+  <si>
+    <t>Financial Manager</t>
+  </si>
+  <si>
+    <t>Adivsory Committee, Project Stakeholders, Project Manager, Project Secretary</t>
+  </si>
+  <si>
+    <t>Steering Committee, Project Manager, Project Secretary</t>
+  </si>
+  <si>
+    <t>Stakeholders, Project Manager, Project Secretary</t>
+  </si>
+  <si>
+    <t>Potential Customers, General Public and Industry Professionals</t>
+  </si>
+  <si>
+    <t>Project Manager, Business Team, Technical Team, Project Secretary</t>
   </si>
 </sst>
 </file>
@@ -309,15 +330,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -327,17 +344,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,7 +673,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -669,393 +686,417 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>40</v>
+        <v>59</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="8"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="8"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" ht="272" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="112" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" ht="96" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="F12:F15"/>
     <mergeCell ref="H12:H15"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="A10:A11"/>
@@ -1072,18 +1113,22 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="E12:E15"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
